--- a/Data/Processing/2024-02-02/AEGISCHEM.xlsx
+++ b/Data/Processing/2024-02-02/AEGISCHEM.xlsx
@@ -2316,7 +2316,7 @@
         <v>386.98</v>
       </c>
       <c r="C36">
-        <v>395.35</v>
+        <v>395.34</v>
       </c>
       <c r="D36">
         <v>377.28</v>
@@ -2337,7 +2337,7 @@
         <v>1.66</v>
       </c>
       <c r="J36">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="K36">
         <v>-2.57</v>
@@ -2346,7 +2346,7 @@
         <v>-2.77</v>
       </c>
       <c r="M36">
-        <v>-0.4600000000000002</v>
+        <v>-0.45</v>
       </c>
       <c r="N36">
         <v>4.67</v>
